--- a/regions/11/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/11/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6866E-51EA-4EBD-8375-0735D7EAF0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +95,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -199,22 +199,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +322,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -360,6 +374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,17 +581,17 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -607,925 +638,1027 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>283</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>139.80000000000001</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>140.69999999999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>162.5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>204</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>284</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>413.3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>576.9</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>693.2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>730.7</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>709.1</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>893.2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>953.8</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>1204.9000000000001</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1389.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="Q6" s="10">
+        <v>2031.6</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2605.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>2.9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>3.3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>4.3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>4.8</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>7.6</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>6.7</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>5.9</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>5.2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>6.2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>8.4</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>15</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>18.7</v>
       </c>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="Q7" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="R7" s="8">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1.9</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>3.2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>5.3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>3.2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.9</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>6.2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>1.5</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>13.6</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>10.8</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>9.9</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>8.6</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>12.3</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>15.8</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="Q8" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="R8" s="8">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>72.7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>88.7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>97.2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>90.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>136.80000000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>182.9</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>278.8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>282.3</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>345.8</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>325.5</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>330.5</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>428.2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>515.5</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>644</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>843.4</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="Q9" s="8">
+        <v>1123.3</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1479.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>7.4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>6.2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
         <v>15.6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>16.3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>22.7</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>25.6</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="I10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="8">
         <v>47.6</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>72.599999999999994</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>103.1</v>
       </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="Q10" s="8">
+        <v>127.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1.3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>1.8</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>1.3</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="Q11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>27.2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>15.4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>14.1</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>11.7</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>18.5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>96.7</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>93.9</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>108</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>129.5</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>127.2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>37</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>60.1</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>58.3</v>
       </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="Q12" s="8">
+        <v>62.9</v>
+      </c>
+      <c r="R12" s="8">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>152.80000000000001</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>9.5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>4.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>13.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>37.799999999999997</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>45.7</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>109.5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>142</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>184.9</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>147.19999999999999</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>181.1</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>205</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <v>276.8</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>280.5</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="Q13" s="8">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="R13" s="8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>6.4</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>6.3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.8</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>3.3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>2.6</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>1.3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>6.4</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>8</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>16.5</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>13.7</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>14.7</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>23.1</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <v>40.700000000000003</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>34.9</v>
       </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="Q14" s="8">
+        <v>43.7</v>
+      </c>
+      <c r="R14" s="8">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>7.9</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>5.4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6.9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>8.6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>12.4</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>24.3</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>24.4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>27.4</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>60.3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>45.8</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>59.6</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>71.599999999999994</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <v>58.6</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <v>30.6</v>
       </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="Q15" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="R15" s="8">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.2</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.1</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="H16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="8">
         <v>0.2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>0.7</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>0.7</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>1.4</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <v>1.2</v>
       </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="Q16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.1</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>0.2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0.4</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.8</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>0.5</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>2.7</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>2.8</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>2.9</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>1.6</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <v>1.3</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="Q17" s="8">
+        <v>3</v>
+      </c>
+      <c r="R17" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0.1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.3</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0.1</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>0.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>0.6</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>0.6</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.9</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>1.3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>0.8</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>1.4</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>2.9</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>1.3</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>3.6</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>1</v>
       </c>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0.6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1.5</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>2.7</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>3.7</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>2.9</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>1.7</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>7.2</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>5</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>7.4</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="Q19" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="R19" s="8">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.1</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>0.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>0.1</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>0.1</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>0.2</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>0.1</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>0.2</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>0.6</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="Q20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>1.2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.5</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2.1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.3</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="8">
         <v>0.6</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.4</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>0.4</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>0.9</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>1.9</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>2.7</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="Q21" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="8">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>0.1</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>1.8</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>3.7</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>1.7</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>0.5</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>1.5</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="Q22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="8">
         <v>0.1</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0.1</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>0.1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>0.1</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>0.2</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>1.2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <v>1.4</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4">
         <v>2006</v>
@@ -1572,913 +1705,1027 @@
       <c r="P27" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>154.9</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>114.4</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>125.3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>138.30000000000001</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>203.2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>239.1</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>371.3</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>454.5</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>539.29999999999995</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>592.20000000000005</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>612.5</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>744.5</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>798.7</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="10">
         <v>1034.4000000000001</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="10">
         <v>1225</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="Q28" s="10">
+        <v>1525</v>
+      </c>
+      <c r="R28" s="10">
+        <v>1968.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>2.9</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>3.2</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>4.3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>4.8</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>7.6</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>7.7</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>5.9</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>5.8</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>8</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>12.2</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <v>11.9</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="8">
         <v>17.7</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="8">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="Q29" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="R29" s="8">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>3.2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>5.3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>3.2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>6.2</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>1.5</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>10.7</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>10.5</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>9.9</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>15</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="8">
         <v>17.399999999999999</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="8">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="Q30" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="R30" s="8">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>78.8</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>74.400000000000006</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>92.7</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>88</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>149.4</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>182.9</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>285.2</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>283.2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>346</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>333.3</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>356.8</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>430</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <v>520.70000000000005</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="8">
         <v>689.6</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <v>847.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="Q31" s="8">
+        <v>1109.5</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1477.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>3.5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>2.5</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="D32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>6.4</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>9.6</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>13.1</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="9">
+      <c r="I32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="8">
         <v>47.6</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="8">
         <v>72.599999999999994</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="8">
         <v>103.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="Q32" s="8">
+        <v>127.5</v>
+      </c>
+      <c r="R32" s="8">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>1.8</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="8">
         <v>1.2</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>0.8</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>1.5</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>1.2</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="9">
+      <c r="I33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="8">
         <v>0.9</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <v>1</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="8">
         <v>2</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="Q33" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>27.2</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>15.3</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>9</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>16.8</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>14</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>11.7</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>18.399999999999999</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <v>96.7</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>95</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <v>108</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>129.4</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>127.3</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>37</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="8">
         <v>60.4</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="8">
         <v>105.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="Q34" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="R34" s="8">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>21.9</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.6</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>2.4</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>1.8</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>5.3</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>8.1</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>13.8</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>16.7</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <v>36.6</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>22.2</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>28.3</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <v>35.1</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="8">
         <v>52.1</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="8">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="Q35" s="8">
+        <v>86.6</v>
+      </c>
+      <c r="R35" s="8">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>6.4</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>6.3</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.8</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>3.3</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>2.5</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>1.3</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>6.2</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>8.1</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>16.5</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>13.8</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>14.7</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>23.1</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="8">
         <v>40.5</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="8">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="Q36" s="8">
+        <v>44.8</v>
+      </c>
+      <c r="R36" s="8">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>7.9</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>5.4</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>8.6</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>8.6</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>12.4</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>24.7</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>23.8</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>27.4</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <v>59.6</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>44.9</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>59.6</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <v>71.599999999999994</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="8">
         <v>58.6</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="8">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="Q37" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="R37" s="8">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>0.2</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="8">
         <v>0.1</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="8">
         <v>0.2</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <v>0.9</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>0.6</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>0.7</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <v>1.4</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="Q38" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="R38" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>0.1</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.3</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>8</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>0.4</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>1.5</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>1</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>0.8</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>2.7</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>2.9</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <v>2.9</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="8">
         <v>1.6</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="Q39" s="8">
+        <v>3</v>
+      </c>
+      <c r="R39" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>0.1</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>0.3</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.2</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.1</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0.5</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>0.6</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>0.6</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>0.7</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>1.3</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>0.8</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>1.4</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>2.9</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <v>1.3</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="8">
         <v>3.5</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="Q40" s="8">
+        <v>1</v>
+      </c>
+      <c r="R40" s="8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>0.6</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>0</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>0</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="9">
+      <c r="E41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="8">
         <v>0</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>1.5</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>2.7</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>3.7</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>2.9</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>2.6</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>1.7</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>6.7</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <v>4.3</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="8">
         <v>7.2</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="8">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="Q41" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="R41" s="8">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="9">
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="8">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>0.1</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <v>0.3</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>0.1</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>0.1</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>0.2</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>0.1</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>0.2</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="8">
         <v>0.6</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="Q42" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>1.9</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>1.9</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>0.3</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>0.9</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="8">
         <v>1.4</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="8">
         <v>0.7</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>0.9</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <v>4</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <v>5.6</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="8">
         <v>6.3</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="8">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="Q43" s="8">
+        <v>21</v>
+      </c>
+      <c r="R43" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="B44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="8">
         <v>0.2</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="I44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="8">
         <v>0.7</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>2.1</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="8">
         <v>3.8</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>1.7</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>0.8</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="8">
         <v>1.7</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="8">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="Q44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="9">
+      <c r="B45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="8">
         <v>0.1</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <v>0.1</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="8">
         <v>0.1</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="8">
         <v>0.1</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>0.2</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <v>1.2</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="8">
         <v>1.4</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q45" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="R45" s="8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4">
         <v>2006</v>
@@ -2525,913 +2772,1027 @@
       <c r="P49" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>7248</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>5511</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>4346</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>4880</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>4587</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>5118</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>6727</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>6687</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>7539</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="11">
         <v>8348</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="11">
         <v>9031</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="11">
         <v>10448</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="11">
         <v>11513.8</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="11">
         <v>12344</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="11">
         <v>10806.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="Q50" s="11">
+        <v>12318</v>
+      </c>
+      <c r="R50" s="11">
+        <v>13292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>295</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>459</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>242</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>351</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <v>238</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>128</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>483</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <v>87</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <v>94</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <v>130</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L51" s="15">
         <v>229</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="15">
         <v>238</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N51" s="15">
         <v>317</v>
       </c>
-      <c r="O51" s="16">
+      <c r="O51" s="15">
         <v>456</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51" s="15">
         <v>377</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="Q51" s="15">
+        <v>306</v>
+      </c>
+      <c r="R51" s="15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>72</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>77</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>96</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>249</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="14">
         <v>114</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>95</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="14">
         <v>197</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <v>41</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="14">
         <v>260</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <v>221</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="14">
         <v>249</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="14">
         <v>208</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="14">
         <v>229</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="14">
         <v>231</v>
       </c>
-      <c r="P52" s="15">
+      <c r="P52" s="14">
         <v>220.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="Q52" s="14">
+        <v>173</v>
+      </c>
+      <c r="R52" s="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>1393</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>1146</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>1099</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>791</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>1220</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>1592</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="14">
         <v>2094</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <v>2144</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
         <v>2446</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="15">
         <v>2583</v>
       </c>
-      <c r="L53" s="16">
+      <c r="L53" s="15">
         <v>2783</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="15">
         <v>3340</v>
       </c>
-      <c r="N53" s="16">
+      <c r="N53" s="15">
         <v>3790.7</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="15">
         <v>4065</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="15">
         <v>4467.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="Q53" s="15">
+        <v>4697</v>
+      </c>
+      <c r="R53" s="15">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>262</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>454</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="15">
+      <c r="D54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="14">
         <v>398</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="14">
         <v>389</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>484</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="14">
         <v>507</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="16">
+      <c r="I54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="15">
         <v>109</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N54" s="15">
         <v>197.1</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="15">
         <v>166</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P54" s="15">
         <v>181</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="Q54" s="15">
+        <v>171</v>
+      </c>
+      <c r="R54" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>218</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>220</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="15">
+      <c r="D55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="14">
         <v>266</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <v>144</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>270</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="14">
         <v>113</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="16">
+      <c r="I55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="15">
         <v>34</v>
       </c>
-      <c r="N55" s="16">
+      <c r="N55" s="15">
         <v>32</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O55" s="15">
         <v>122</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P55" s="15">
         <v>137.80000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="Q55" s="15">
+        <v>114</v>
+      </c>
+      <c r="R55" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>2049</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>1075</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>664</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>1015</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="14">
         <v>633</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>630</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>879</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <v>1244</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="15">
         <v>1167</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="15">
         <v>1232</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="15">
         <v>1621</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M56" s="15">
         <v>1726</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N56" s="15">
         <v>918.6</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="15">
         <v>972</v>
       </c>
-      <c r="P56" s="16">
+      <c r="P56" s="15">
         <v>949.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="Q56" s="15">
+        <v>845</v>
+      </c>
+      <c r="R56" s="15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>701</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>375</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>143</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>303</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <v>268</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>266</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="14">
         <v>574</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <v>815</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>1028</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <v>1947</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="15">
         <v>1435</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="15">
         <v>1627</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="15">
         <v>1766.7</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <v>2236</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <v>1668.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="Q57" s="15">
+        <v>2722</v>
+      </c>
+      <c r="R57" s="15">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>307</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>292</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>74</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>75</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="14">
         <v>202</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>96</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>83</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="14">
         <v>174</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="15">
         <v>170</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <v>215</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L58" s="15">
         <v>313</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="15">
         <v>344</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N58" s="15">
         <v>461.3</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="15">
         <v>679</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="15">
         <v>685.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="Q58" s="15">
+        <v>1041</v>
+      </c>
+      <c r="R58" s="15">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>829</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>487</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>710</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>424</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="14">
         <v>539</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>687</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="14">
         <v>1239</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="14">
         <v>950</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <v>988</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <v>1318</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="15">
         <v>1180</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="15">
         <v>1334</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="15">
         <v>2034.9</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="15">
         <v>2014</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="15">
         <v>1286.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="Q59" s="15">
+        <v>1292</v>
+      </c>
+      <c r="R59" s="15">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>75</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="15">
+      <c r="C60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="14">
         <v>12</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="F60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="14">
         <v>3</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="16">
+      <c r="H60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="15">
         <v>17</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <v>34</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="15">
         <v>47</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="15">
         <v>47</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="15">
         <v>46.6</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="15">
         <v>32</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="15">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="Q60" s="15">
+        <v>32</v>
+      </c>
+      <c r="R60" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>61</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>38</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>46</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>150</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="14">
         <v>149</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>77</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="14">
         <v>111</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <v>103</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="15">
         <v>35</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <v>56</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="15">
         <v>371</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="15">
         <v>404</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="15">
         <v>102.5</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="15">
         <v>49</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="Q61" s="15">
+        <v>131</v>
+      </c>
+      <c r="R61" s="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>52</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>44</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>46</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>49</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="14">
         <v>91</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>108</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>107</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <v>113</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="15">
         <v>141</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <v>64</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="15">
         <v>69</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="15">
         <v>161</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="15">
         <v>105.7</v>
       </c>
-      <c r="O62" s="16">
+      <c r="O62" s="15">
         <v>128</v>
       </c>
-      <c r="P62" s="16">
+      <c r="P62" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="Q62" s="15">
+        <v>45</v>
+      </c>
+      <c r="R62" s="15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>93</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>24</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>11</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="15">
-        <v>21</v>
-      </c>
-      <c r="G63" s="15">
+      <c r="E63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="14">
+        <v>21</v>
+      </c>
+      <c r="G63" s="14">
         <v>113</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <v>177</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <v>248</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="15">
         <v>259</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <v>156</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L63" s="15">
         <v>114</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="15">
         <v>176</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="15">
         <v>214.3</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="15">
         <v>320</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="15">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="Q63" s="15">
+        <v>61</v>
+      </c>
+      <c r="R63" s="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="14">
+      <c r="B64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="13">
         <v>32</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>27</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>29</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>23</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <v>24</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="13">
         <v>29</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M64" s="13">
         <v>34</v>
       </c>
-      <c r="N64" s="14">
+      <c r="N64" s="13">
         <v>35.200000000000003</v>
       </c>
-      <c r="O64" s="14">
+      <c r="O64" s="13">
         <v>37</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="Q64" s="13">
+        <v>14</v>
+      </c>
+      <c r="R64" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>841</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <v>820</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>775</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <v>717</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="13">
         <v>511</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>538</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>108</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="13">
         <v>153</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>239</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
         <v>189</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="13">
         <v>265</v>
       </c>
-      <c r="M65" s="14">
+      <c r="M65" s="13">
         <v>450</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N65" s="13">
         <v>538.70000000000005</v>
       </c>
-      <c r="O65" s="14">
+      <c r="O65" s="13">
         <v>538</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="13">
         <v>483</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="Q65" s="13">
+        <v>488</v>
+      </c>
+      <c r="R65" s="13">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="14">
-        <v>21</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="14">
-        <v>22</v>
-      </c>
-      <c r="K66" s="14">
+      <c r="B66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="13">
+        <v>21</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="13">
+        <v>22</v>
+      </c>
+      <c r="K66" s="13">
         <v>84</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="13">
         <v>220</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="13">
         <v>127</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N66" s="13">
         <v>50.2</v>
       </c>
-      <c r="O66" s="14">
+      <c r="O66" s="13">
         <v>85</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="13">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="Q66" s="13">
+        <v>50</v>
+      </c>
+      <c r="R66" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="14">
+      <c r="B67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="13">
         <v>30</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>24</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="13">
         <v>14</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="13">
         <v>7</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="13">
         <v>89</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N67" s="13">
         <v>673.3</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O67" s="13">
         <v>214</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P67" s="13">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q67" s="13">
+        <v>136</v>
+      </c>
+      <c r="R67" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4">
         <v>2006</v>
@@ -3478,905 +3839,1019 @@
       <c r="P71" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>289.89999999999998</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>292.3</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>375.7</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="9">
         <v>457</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>518.4</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>608</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="10">
         <v>574.1</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="10">
         <v>775</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="10">
         <v>814.9</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <v>890.3</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <v>914.2</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="10">
         <v>950</v>
       </c>
-      <c r="N72" s="11">
+      <c r="N72" s="10">
         <v>947.3</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O72" s="10">
         <v>1055.0999999999999</v>
       </c>
-      <c r="P72" s="11">
+      <c r="P72" s="10">
         <v>1275.4000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="Q72" s="10">
+        <v>1296</v>
+      </c>
+      <c r="R72" s="10">
+        <v>1562.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>105.7</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>113.2</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>199.7</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>213.6</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>226.7</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>212.4</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>121.3</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <v>249.5</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="8">
         <v>491</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="8">
         <v>416.2</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="8">
         <v>347.3</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="8">
         <v>525.5</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="8">
         <v>677.5</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="8">
         <v>482.6</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73" s="8">
         <v>448.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="Q73" s="8">
+        <v>751.1</v>
+      </c>
+      <c r="R73" s="8">
+        <v>685.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>135.30000000000001</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>322.60000000000002</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>311.10000000000002</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>206.1</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>306.89999999999998</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>124.9</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>296</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="8">
         <v>459.7</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="8">
         <v>522.79999999999995</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="8">
         <v>589.4</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="8">
         <v>745.6</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="8">
         <v>977.4</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="8">
         <v>959.1</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74" s="8">
         <v>986</v>
       </c>
-      <c r="P74" s="9">
+      <c r="P74" s="8">
         <v>1024.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="Q74" s="8">
+        <v>990.1</v>
+      </c>
+      <c r="R74" s="8">
+        <v>1120.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>522.5</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>497.3</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>639.6</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>1044.4000000000001</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>821.9</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="8">
         <v>1080</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>926.1</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="8">
         <v>1160.3</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="8">
         <v>1184</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="8">
         <v>1364.8</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="8">
         <v>1281</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="8">
         <v>1322.1</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="8">
         <v>1442</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="8">
         <v>1591.4</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="8">
         <v>1864.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="Q75" s="8">
+        <v>1882.6</v>
+      </c>
+      <c r="R75" s="8">
+        <v>2158.6999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>293</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>199.6</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="8">
         <v>483.3</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>529.5</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>580.4</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>859.7</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="9">
+      <c r="I76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="8">
         <v>1598</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="8">
         <v>1497</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="8">
         <v>1760.2</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="8">
         <v>1953.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="Q76" s="8">
+        <v>2322.6</v>
+      </c>
+      <c r="R76" s="8">
+        <v>2831.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>90</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>133.19999999999999</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="D77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="8">
         <v>140.4</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>247.9</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>263.39999999999998</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>343.9</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="9">
+      <c r="I77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="8">
         <v>683.2</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="8">
         <v>693.1</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="8">
         <v>547.29999999999995</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="8">
         <v>376.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="Q77" s="8">
+        <v>519.29999999999995</v>
+      </c>
+      <c r="R77" s="8">
+        <v>599.29999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>275.60000000000002</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>413.3</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>321.5</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>507.2</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>514.70000000000005</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>419</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>559.70000000000005</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="8">
         <v>749.5</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="8">
         <v>835.8</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K78" s="8">
         <v>1075.0999999999999</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="8">
         <v>1071.7</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="8">
         <v>1009.5</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="8">
         <v>734.9</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O78" s="8">
         <v>856.3</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78" s="8">
         <v>1102.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="Q78" s="8">
+        <v>847.8</v>
+      </c>
+      <c r="R78" s="8">
+        <v>1257.5999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>394</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>63.1</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>274.89999999999998</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>224.9</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <v>214.6</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="8">
         <v>387.4</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>244.4</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <v>503.2</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="8">
         <v>491.3</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="8">
         <v>483.4</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L79" s="8">
         <v>482.2</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="8">
         <v>684.5</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="8">
         <v>766.6</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79" s="8">
         <v>772</v>
       </c>
-      <c r="P79" s="9">
+      <c r="P79" s="8">
         <v>955.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="Q79" s="8">
+        <v>1098</v>
+      </c>
+      <c r="R79" s="8">
+        <v>1283.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>449.4</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>347.5</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>862.3</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>426.3</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <v>473.7</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="8">
         <v>665.1</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="8">
         <v>553.79999999999995</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="8">
         <v>344.9</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="8">
         <v>534.20000000000005</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K80" s="8">
         <v>521.9</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L80" s="8">
         <v>716</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="8">
         <v>734</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="8">
         <v>910.1</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="8">
         <v>840.6</v>
       </c>
-      <c r="P80" s="9">
+      <c r="P80" s="8">
         <v>872.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="Q80" s="8">
+        <v>637.1</v>
+      </c>
+      <c r="R80" s="8">
+        <v>979.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>153.80000000000001</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>215.2</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <v>276.5</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>363.2</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <v>386.1</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="8">
         <v>398.2</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="8">
         <v>318.10000000000002</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="8">
         <v>531.29999999999995</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="8">
         <v>573.1</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="8">
         <v>529.6</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L81" s="8">
         <v>735.5</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M81" s="8">
         <v>795.4</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="8">
         <v>744.9</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O81" s="8">
         <v>625.29999999999995</v>
       </c>
-      <c r="P81" s="9">
+      <c r="P81" s="8">
         <v>383.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="Q81" s="8">
+        <v>395.9</v>
+      </c>
+      <c r="R81" s="8">
+        <v>927.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>99.8</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="9">
+      <c r="C82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="8">
         <v>134</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>0</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="8">
         <v>0</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" s="9">
+      <c r="H82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="8">
         <v>307.10000000000002</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="8">
         <v>829</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="8">
         <v>335.1</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="8">
         <v>458.3</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="8">
         <v>862.2</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O82" s="8">
         <v>1692.4</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82" s="8">
         <v>1084.4000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="Q82" s="8">
+        <v>1417.3</v>
+      </c>
+      <c r="R82" s="8">
+        <v>2148.1999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>250.8</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>55</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="8">
         <v>192.8</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>407.7</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>960.8</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="8">
         <v>293.60000000000002</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>494.4</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <v>271</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="8">
         <v>313.8</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="8">
         <v>306.89999999999998</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L83" s="8">
         <v>316.2</v>
       </c>
-      <c r="M83" s="9">
+      <c r="M83" s="8">
         <v>184.8</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="8">
         <v>510.2</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O83" s="8">
         <v>420.5</v>
       </c>
-      <c r="P83" s="9">
+      <c r="P83" s="8">
         <v>723.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="Q83" s="8">
+        <v>788</v>
+      </c>
+      <c r="R83" s="8">
+        <v>928.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>107.8</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>327.9</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>230.3</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>180</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>422.7</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>306.3</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>274.8</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="8">
         <v>500.4</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="8">
         <v>574.4</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="8">
         <v>715.1</v>
       </c>
-      <c r="L84" s="9">
+      <c r="L84" s="8">
         <v>856.1</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="8">
         <v>1044.3</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <v>508.6</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84" s="8">
         <v>666.3</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P84" s="8">
         <v>289.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="Q84" s="8">
+        <v>1208.8</v>
+      </c>
+      <c r="R84" s="8">
+        <v>589.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>191.3</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>158.4</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>131.6</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E85" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="8">
         <v>125</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>653.20000000000005</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>611.1</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>705.3</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="8">
         <v>614.4</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="8">
         <v>585.6</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L85" s="8">
         <v>693.2</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="8">
         <v>623.20000000000005</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="8">
         <v>385.5</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85" s="8">
         <v>475</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P85" s="8">
         <v>768.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="Q85" s="8">
+        <v>769.5</v>
+      </c>
+      <c r="R85" s="8">
+        <v>740.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="9">
+      <c r="B86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="8">
         <v>86.6</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>115</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="8">
         <v>228.9</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="8">
         <v>54.8</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K86" s="8">
         <v>139.19999999999999</v>
       </c>
-      <c r="L86" s="9">
+      <c r="L86" s="8">
         <v>118.2</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="8">
         <v>93.8</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="8">
         <v>142.69999999999999</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86" s="8">
         <v>459.7</v>
       </c>
-      <c r="P86" s="9">
+      <c r="P86" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="Q86" s="8">
+        <v>495.4</v>
+      </c>
+      <c r="R86" s="8">
+        <v>1211.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>131.6</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>124.2</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>161.1</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>239.3</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <v>225.8</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>257.5</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>274</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <v>301.89999999999998</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="8">
         <v>381.2</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="8">
         <v>388.8</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L87" s="8">
         <v>384</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="8">
         <v>523.6</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="8">
         <v>572.70000000000005</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="8">
         <v>610.20000000000005</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87" s="8">
         <v>779.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="Q87" s="8">
+        <v>995.5</v>
+      </c>
+      <c r="R87" s="8">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="9">
+      <c r="B88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="8">
         <v>270.7</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" s="9">
+      <c r="I88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" s="8">
         <v>1117.5999999999999</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="8">
         <v>1033.5</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="8">
         <v>605.6</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="8">
         <v>159.6</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="8">
         <v>690.3</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="8">
         <v>520.70000000000005</v>
       </c>
-      <c r="P88" s="9">
+      <c r="P88" s="8">
         <v>1065.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="Q88" s="8">
+        <v>485.1</v>
+      </c>
+      <c r="R88" s="8">
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="9">
+      <c r="B89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="8">
         <v>11.4</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="8">
         <v>49.8</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K89" s="8">
         <v>48.3</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L89" s="8">
         <v>116.7</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M89" s="8">
         <v>51.2</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89" s="8">
         <v>28.8</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O89" s="8">
         <v>689.8</v>
       </c>
-      <c r="P89" s="9">
+      <c r="P89" s="8">
         <v>396</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>121.8</v>
+      </c>
+      <c r="R89" s="8">
+        <v>145.19999999999999</v>
       </c>
     </row>
   </sheetData>
